--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -10,8 +10,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhS1Cp9ybRGIBjLQeDga8yFr2vq2Q=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="eCvJxfHBtuL9lhIwIiIxo+UrEKIFfcH20xmn//Up/SI="/>
     </ext>
   </extLst>
 </workbook>
@@ -147,26 +147,24 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -177,11 +175,13 @@
       <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font/>
   </fonts>
@@ -282,35 +282,37 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -535,11 +537,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.63"/>
-    <col customWidth="1" min="2" max="2" width="44.63"/>
-    <col customWidth="1" min="3" max="26" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="51.0"/>
+    <col customWidth="1" min="3" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -632,7 +634,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="10">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -1641,9 +1643,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="34.75"/>
+    <col customWidth="1" min="2" max="2" width="39.71"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1708,10 +1710,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="20.5"/>
-    <col customWidth="1" min="5" max="26" width="7.63"/>
+    <col customWidth="1" min="1" max="4" width="23.43"/>
+    <col customWidth="1" min="5" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
